--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Amelx</t>
+  </si>
+  <si>
+    <t>Lamp2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Amelx</t>
-  </si>
-  <si>
-    <t>Lamp2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +546,10 @@
         <v>3.701348</v>
       </c>
       <c r="I2">
-        <v>0.8200990230195506</v>
+        <v>0.8985324298198297</v>
       </c>
       <c r="J2">
-        <v>0.8200990230195507</v>
+        <v>0.8985324298198296</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>66.089962</v>
+        <v>77.43361366666666</v>
       </c>
       <c r="N2">
-        <v>198.269886</v>
+        <v>232.300841</v>
       </c>
       <c r="O2">
-        <v>0.08629966513164385</v>
+        <v>0.1019602048347203</v>
       </c>
       <c r="P2">
-        <v>0.08629966513164385</v>
+        <v>0.1019602048347203</v>
       </c>
       <c r="Q2">
-        <v>81.54064955625867</v>
+        <v>95.53625035929643</v>
       </c>
       <c r="R2">
-        <v>733.865846006328</v>
+        <v>859.826253233668</v>
       </c>
       <c r="S2">
-        <v>0.0707742710613755</v>
+        <v>0.0916145505950688</v>
       </c>
       <c r="T2">
-        <v>0.0707742710613755</v>
+        <v>0.0916145505950688</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>3.701348</v>
       </c>
       <c r="I3">
-        <v>0.8200990230195506</v>
+        <v>0.8985324298198297</v>
       </c>
       <c r="J3">
-        <v>0.8200990230195507</v>
+        <v>0.8985324298198296</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>563.557937</v>
       </c>
       <c r="O3">
-        <v>0.2452962586833789</v>
+        <v>0.2473537437290312</v>
       </c>
       <c r="P3">
-        <v>0.2452962586833789</v>
+        <v>0.2473537437290312</v>
       </c>
       <c r="Q3">
         <v>231.7693381110085</v>
@@ -638,10 +638,10 @@
         <v>2085.924042999076</v>
       </c>
       <c r="S3">
-        <v>0.20116722209659</v>
+        <v>0.2222553603778779</v>
       </c>
       <c r="T3">
-        <v>0.20116722209659</v>
+        <v>0.2222553603778778</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -670,10 +670,10 @@
         <v>3.701348</v>
       </c>
       <c r="I4">
-        <v>0.8200990230195506</v>
+        <v>0.8985324298198297</v>
       </c>
       <c r="J4">
-        <v>0.8200990230195507</v>
+        <v>0.8985324298198296</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>227.8758186666666</v>
+        <v>248.1074066666667</v>
       </c>
       <c r="N4">
-        <v>683.6274559999999</v>
+        <v>744.32222</v>
       </c>
       <c r="O4">
-        <v>0.2975581502457594</v>
+        <v>0.3266938065636782</v>
       </c>
       <c r="P4">
-        <v>0.2975581502457594</v>
+        <v>0.3266938065636782</v>
       </c>
       <c r="Q4">
-        <v>281.1492352234097</v>
+        <v>306.1106178169511</v>
       </c>
       <c r="R4">
-        <v>2530.343117010688</v>
+        <v>2754.99556035256</v>
       </c>
       <c r="S4">
-        <v>0.2440271483080519</v>
+        <v>0.2935449798187513</v>
       </c>
       <c r="T4">
-        <v>0.2440271483080519</v>
+        <v>0.2935449798187512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -732,10 +732,10 @@
         <v>3.701348</v>
       </c>
       <c r="I5">
-        <v>0.8200990230195506</v>
+        <v>0.8985324298198297</v>
       </c>
       <c r="J5">
-        <v>0.8200990230195507</v>
+        <v>0.8985324298198296</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.58901</v>
+        <v>36.18267566666666</v>
       </c>
       <c r="N5">
-        <v>88.76703000000001</v>
+        <v>108.548027</v>
       </c>
       <c r="O5">
-        <v>0.03863705738818342</v>
+        <v>0.04764330176198007</v>
       </c>
       <c r="P5">
-        <v>0.03863705738818342</v>
+        <v>0.04764330176198008</v>
       </c>
       <c r="Q5">
-        <v>36.50640766182667</v>
+        <v>44.6415580711551</v>
       </c>
       <c r="R5">
-        <v>328.5576689564401</v>
+        <v>401.774022640396</v>
       </c>
       <c r="S5">
-        <v>0.03168621301639953</v>
+        <v>0.04280905169683132</v>
       </c>
       <c r="T5">
-        <v>0.03168621301639954</v>
+        <v>0.04280905169683133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>3.701348</v>
       </c>
       <c r="I6">
-        <v>0.8200990230195506</v>
+        <v>0.8985324298198297</v>
       </c>
       <c r="J6">
-        <v>0.8200990230195507</v>
+        <v>0.8985324298198296</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>254.4120126666667</v>
+        <v>209.8730316666667</v>
       </c>
       <c r="N6">
-        <v>763.236038</v>
+        <v>629.619095</v>
       </c>
       <c r="O6">
-        <v>0.3322088685510345</v>
+        <v>0.2763489431105901</v>
       </c>
       <c r="P6">
-        <v>0.3322088685510345</v>
+        <v>0.2763489431105902</v>
       </c>
       <c r="Q6">
-        <v>313.8891314199138</v>
+        <v>258.9377086711178</v>
       </c>
       <c r="R6">
-        <v>2825.002182779224</v>
+        <v>2330.43937804006</v>
       </c>
       <c r="S6">
-        <v>0.2724441685371338</v>
+        <v>0.2483084873313004</v>
       </c>
       <c r="T6">
-        <v>0.2724441685371338</v>
+        <v>0.2483084873313005</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08880466666666666</v>
+        <v>0.07539</v>
       </c>
       <c r="H7">
-        <v>0.266414</v>
+        <v>0.22617</v>
       </c>
       <c r="I7">
-        <v>0.05902872713366334</v>
+        <v>0.05490461303621029</v>
       </c>
       <c r="J7">
-        <v>0.05902872713366335</v>
+        <v>0.05490461303621028</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>66.089962</v>
+        <v>77.43361366666666</v>
       </c>
       <c r="N7">
-        <v>198.269886</v>
+        <v>232.300841</v>
       </c>
       <c r="O7">
-        <v>0.08629966513164385</v>
+        <v>0.1019602048347203</v>
       </c>
       <c r="P7">
-        <v>0.08629966513164385</v>
+        <v>0.1019602048347203</v>
       </c>
       <c r="Q7">
-        <v>5.869097045422666</v>
+        <v>5.83772013433</v>
       </c>
       <c r="R7">
-        <v>52.821873408804</v>
+        <v>52.53948120897</v>
       </c>
       <c r="S7">
-        <v>0.005094159384782325</v>
+        <v>0.005598085591543057</v>
       </c>
       <c r="T7">
-        <v>0.005094159384782326</v>
+        <v>0.005598085591543057</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.08880466666666666</v>
+        <v>0.07539</v>
       </c>
       <c r="H8">
-        <v>0.266414</v>
+        <v>0.22617</v>
       </c>
       <c r="I8">
-        <v>0.05902872713366334</v>
+        <v>0.05490461303621029</v>
       </c>
       <c r="J8">
-        <v>0.05902872713366335</v>
+        <v>0.05490461303621028</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>563.557937</v>
       </c>
       <c r="O8">
-        <v>0.2452962586833789</v>
+        <v>0.2473537437290312</v>
       </c>
       <c r="P8">
-        <v>0.2452962586833789</v>
+        <v>0.2473537437290312</v>
       </c>
       <c r="Q8">
-        <v>16.68219158087978</v>
+        <v>14.16221095681</v>
       </c>
       <c r="R8">
-        <v>150.139724227918</v>
+        <v>127.45989861129</v>
       </c>
       <c r="S8">
-        <v>0.01447952592072967</v>
+        <v>0.01358086158250039</v>
       </c>
       <c r="T8">
-        <v>0.01447952592072967</v>
+        <v>0.01358086158250038</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.08880466666666666</v>
+        <v>0.07539</v>
       </c>
       <c r="H9">
-        <v>0.266414</v>
+        <v>0.22617</v>
       </c>
       <c r="I9">
-        <v>0.05902872713366334</v>
+        <v>0.05490461303621029</v>
       </c>
       <c r="J9">
-        <v>0.05902872713366335</v>
+        <v>0.05490461303621028</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>227.8758186666666</v>
+        <v>248.1074066666667</v>
       </c>
       <c r="N9">
-        <v>683.6274559999999</v>
+        <v>744.32222</v>
       </c>
       <c r="O9">
-        <v>0.2975581502457594</v>
+        <v>0.3266938065636782</v>
       </c>
       <c r="P9">
-        <v>0.2975581502457594</v>
+        <v>0.3266938065636782</v>
       </c>
       <c r="Q9">
-        <v>20.23643611808711</v>
+        <v>18.7048173886</v>
       </c>
       <c r="R9">
-        <v>182.127925062784</v>
+        <v>168.3433564974</v>
       </c>
       <c r="S9">
-        <v>0.01756447885725453</v>
+        <v>0.01793699703070529</v>
       </c>
       <c r="T9">
-        <v>0.01756447885725453</v>
+        <v>0.01793699703070529</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.08880466666666666</v>
+        <v>0.07539</v>
       </c>
       <c r="H10">
-        <v>0.266414</v>
+        <v>0.22617</v>
       </c>
       <c r="I10">
-        <v>0.05902872713366334</v>
+        <v>0.05490461303621029</v>
       </c>
       <c r="J10">
-        <v>0.05902872713366335</v>
+        <v>0.05490461303621028</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>29.58901</v>
+        <v>36.18267566666666</v>
       </c>
       <c r="N10">
-        <v>88.76703000000001</v>
+        <v>108.548027</v>
       </c>
       <c r="O10">
-        <v>0.03863705738818342</v>
+        <v>0.04764330176198007</v>
       </c>
       <c r="P10">
-        <v>0.03863705738818342</v>
+        <v>0.04764330176198008</v>
       </c>
       <c r="Q10">
-        <v>2.627642170046666</v>
+        <v>2.72781191851</v>
       </c>
       <c r="R10">
-        <v>23.64877953042</v>
+        <v>24.55030726659</v>
       </c>
       <c r="S10">
-        <v>0.00228069631781477</v>
+        <v>0.002615837047008912</v>
       </c>
       <c r="T10">
-        <v>0.002280696317814771</v>
+        <v>0.002615837047008912</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.08880466666666666</v>
+        <v>0.07539</v>
       </c>
       <c r="H11">
-        <v>0.266414</v>
+        <v>0.22617</v>
       </c>
       <c r="I11">
-        <v>0.05902872713366334</v>
+        <v>0.05490461303621029</v>
       </c>
       <c r="J11">
-        <v>0.05902872713366335</v>
+        <v>0.05490461303621028</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>254.4120126666667</v>
+        <v>209.8730316666667</v>
       </c>
       <c r="N11">
-        <v>763.236038</v>
+        <v>629.619095</v>
       </c>
       <c r="O11">
-        <v>0.3322088685510345</v>
+        <v>0.2763489431105901</v>
       </c>
       <c r="P11">
-        <v>0.3322088685510345</v>
+        <v>0.2763489431105902</v>
       </c>
       <c r="Q11">
-        <v>22.59297398085911</v>
+        <v>15.82232785735</v>
       </c>
       <c r="R11">
-        <v>203.336765827732</v>
+        <v>142.40095071615</v>
       </c>
       <c r="S11">
-        <v>0.01960986665308205</v>
+        <v>0.01517283178445264</v>
       </c>
       <c r="T11">
-        <v>0.01960986665308205</v>
+        <v>0.01517283178445264</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.09767866666666668</v>
+        <v>0.06393600000000001</v>
       </c>
       <c r="H12">
-        <v>0.293036</v>
+        <v>0.191808</v>
       </c>
       <c r="I12">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395996</v>
       </c>
       <c r="J12">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395995</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>66.089962</v>
+        <v>77.43361366666666</v>
       </c>
       <c r="N12">
-        <v>198.269886</v>
+        <v>232.300841</v>
       </c>
       <c r="O12">
-        <v>0.08629966513164385</v>
+        <v>0.1019602048347203</v>
       </c>
       <c r="P12">
-        <v>0.08629966513164385</v>
+        <v>0.1019602048347203</v>
       </c>
       <c r="Q12">
-        <v>6.455579368210667</v>
+        <v>4.950795523392</v>
       </c>
       <c r="R12">
-        <v>58.100214313896</v>
+        <v>44.557159710528</v>
       </c>
       <c r="S12">
-        <v>0.005603204371688701</v>
+        <v>0.004747568648108461</v>
       </c>
       <c r="T12">
-        <v>0.005603204371688701</v>
+        <v>0.004747568648108461</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.09767866666666668</v>
+        <v>0.06393600000000001</v>
       </c>
       <c r="H13">
-        <v>0.293036</v>
+        <v>0.191808</v>
       </c>
       <c r="I13">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395996</v>
       </c>
       <c r="J13">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395995</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>563.557937</v>
       </c>
       <c r="O13">
-        <v>0.2452962586833789</v>
+        <v>0.2473537437290312</v>
       </c>
       <c r="P13">
-        <v>0.2452962586833789</v>
+        <v>0.2473537437290312</v>
       </c>
       <c r="Q13">
-        <v>18.34919595852578</v>
+        <v>12.010546753344</v>
       </c>
       <c r="R13">
-        <v>165.142763626732</v>
+        <v>108.094920780096</v>
       </c>
       <c r="S13">
-        <v>0.01592642412826255</v>
+        <v>0.01151752176865293</v>
       </c>
       <c r="T13">
-        <v>0.01592642412826255</v>
+        <v>0.01151752176865293</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.09767866666666668</v>
+        <v>0.06393600000000001</v>
       </c>
       <c r="H14">
-        <v>0.293036</v>
+        <v>0.191808</v>
       </c>
       <c r="I14">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395996</v>
       </c>
       <c r="J14">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395995</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>227.8758186666666</v>
+        <v>248.1074066666667</v>
       </c>
       <c r="N14">
-        <v>683.6274559999999</v>
+        <v>744.32222</v>
       </c>
       <c r="O14">
-        <v>0.2975581502457594</v>
+        <v>0.3266938065636782</v>
       </c>
       <c r="P14">
-        <v>0.2975581502457594</v>
+        <v>0.3266938065636782</v>
       </c>
       <c r="Q14">
-        <v>22.25860613293511</v>
+        <v>15.86299515264</v>
       </c>
       <c r="R14">
-        <v>200.327455196416</v>
+        <v>142.76695637376</v>
       </c>
       <c r="S14">
-        <v>0.01931964771526436</v>
+        <v>0.01521182971422169</v>
       </c>
       <c r="T14">
-        <v>0.01931964771526436</v>
+        <v>0.01521182971422169</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.09767866666666668</v>
+        <v>0.06393600000000001</v>
       </c>
       <c r="H15">
-        <v>0.293036</v>
+        <v>0.191808</v>
       </c>
       <c r="I15">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395996</v>
       </c>
       <c r="J15">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395995</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.58901</v>
+        <v>36.18267566666666</v>
       </c>
       <c r="N15">
-        <v>88.76703000000001</v>
+        <v>108.548027</v>
       </c>
       <c r="O15">
-        <v>0.03863705738818342</v>
+        <v>0.04764330176198007</v>
       </c>
       <c r="P15">
-        <v>0.03863705738818342</v>
+        <v>0.04764330176198008</v>
       </c>
       <c r="Q15">
-        <v>2.890215044786667</v>
+        <v>2.313375551424</v>
       </c>
       <c r="R15">
-        <v>26.01193540308</v>
+        <v>20.820379962816</v>
       </c>
       <c r="S15">
-        <v>0.002508599871580206</v>
+        <v>0.00221841301813983</v>
       </c>
       <c r="T15">
-        <v>0.002508599871580206</v>
+        <v>0.00221841301813983</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.09767866666666668</v>
+        <v>0.06393600000000001</v>
       </c>
       <c r="H16">
-        <v>0.293036</v>
+        <v>0.191808</v>
       </c>
       <c r="I16">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395996</v>
       </c>
       <c r="J16">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395995</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>254.4120126666667</v>
+        <v>209.8730316666667</v>
       </c>
       <c r="N16">
-        <v>763.236038</v>
+        <v>629.619095</v>
       </c>
       <c r="O16">
-        <v>0.3322088685510345</v>
+        <v>0.2763489431105901</v>
       </c>
       <c r="P16">
-        <v>0.3322088685510345</v>
+        <v>0.2763489431105902</v>
       </c>
       <c r="Q16">
-        <v>24.85062618126311</v>
+        <v>13.41844215264</v>
       </c>
       <c r="R16">
-        <v>223.655635631368</v>
+        <v>120.76597937376</v>
       </c>
       <c r="S16">
-        <v>0.02156942534758891</v>
+        <v>0.01286762399483704</v>
       </c>
       <c r="T16">
-        <v>0.02156942534758891</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.08416533333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.252496</v>
-      </c>
-      <c r="I17">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="J17">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>66.089962</v>
-      </c>
-      <c r="N17">
-        <v>198.269886</v>
-      </c>
-      <c r="O17">
-        <v>0.08629966513164385</v>
-      </c>
-      <c r="P17">
-        <v>0.08629966513164385</v>
-      </c>
-      <c r="Q17">
-        <v>5.562483681717333</v>
-      </c>
-      <c r="R17">
-        <v>50.06235313545599</v>
-      </c>
-      <c r="S17">
-        <v>0.004828030313797316</v>
-      </c>
-      <c r="T17">
-        <v>0.004828030313797316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.08416533333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.252496</v>
-      </c>
-      <c r="I18">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="J18">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>187.8526456666667</v>
-      </c>
-      <c r="N18">
-        <v>563.557937</v>
-      </c>
-      <c r="O18">
-        <v>0.2452962586833789</v>
-      </c>
-      <c r="P18">
-        <v>0.2452962586833789</v>
-      </c>
-      <c r="Q18">
-        <v>15.81068054008356</v>
-      </c>
-      <c r="R18">
-        <v>142.296124860752</v>
-      </c>
-      <c r="S18">
-        <v>0.01372308653779666</v>
-      </c>
-      <c r="T18">
-        <v>0.01372308653779666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.08416533333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.252496</v>
-      </c>
-      <c r="I19">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="J19">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>227.8758186666666</v>
-      </c>
-      <c r="N19">
-        <v>683.6274559999999</v>
-      </c>
-      <c r="O19">
-        <v>0.2975581502457594</v>
-      </c>
-      <c r="P19">
-        <v>0.2975581502457594</v>
-      </c>
-      <c r="Q19">
-        <v>19.17924423668622</v>
-      </c>
-      <c r="R19">
-        <v>172.613198130176</v>
-      </c>
-      <c r="S19">
-        <v>0.01664687536518854</v>
-      </c>
-      <c r="T19">
-        <v>0.01664687536518854</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.08416533333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.252496</v>
-      </c>
-      <c r="I20">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="J20">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>29.58901</v>
-      </c>
-      <c r="N20">
-        <v>88.76703000000001</v>
-      </c>
-      <c r="O20">
-        <v>0.03863705738818342</v>
-      </c>
-      <c r="P20">
-        <v>0.03863705738818342</v>
-      </c>
-      <c r="Q20">
-        <v>2.490368889653333</v>
-      </c>
-      <c r="R20">
-        <v>22.41332000688</v>
-      </c>
-      <c r="S20">
-        <v>0.002161548182388907</v>
-      </c>
-      <c r="T20">
-        <v>0.002161548182388907</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.08416533333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.252496</v>
-      </c>
-      <c r="I21">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="J21">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>254.4120126666667</v>
-      </c>
-      <c r="N21">
-        <v>763.236038</v>
-      </c>
-      <c r="O21">
-        <v>0.3322088685510345</v>
-      </c>
-      <c r="P21">
-        <v>0.3322088685510345</v>
-      </c>
-      <c r="Q21">
-        <v>21.41267185009422</v>
-      </c>
-      <c r="R21">
-        <v>192.714046650848</v>
-      </c>
-      <c r="S21">
-        <v>0.01858540801322981</v>
-      </c>
-      <c r="T21">
-        <v>0.01858540801322981</v>
+        <v>0.01286762399483704</v>
       </c>
     </row>
   </sheetData>
